--- a/device_configs.xlsx
+++ b/device_configs.xlsx
@@ -19,21 +19,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Baudrate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>en
-conf t
-interface vlan 1
-no shutdown
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Config</t>
+    <t>DataBits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopBits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable
+configuration terminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -41,6 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,11 +157,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -362,42 +444,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="2">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>9600</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>9600</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/device_configs.xlsx
+++ b/device_configs.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="config" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Config</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,88 +31,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baudrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopBits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>192.168.0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConnectionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baudrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataBits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StopBits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd ..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable
-configuration terminal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM1</t>
+    <t>192.168.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.3.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,51 +465,51 @@
     <col min="7" max="8" width="10.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="10.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.625" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
         <v>9600</v>
@@ -513,56 +518,375 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
+      <c r="K2" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(config!$A$1, "{vlan}", data!B2), "{IP}", data!A2)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(config!$A$1, "{vlan}", data!B3), "{IP}", data!A3)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(config!$A$1, "{vlan}", data!B4), "{IP}", data!A4)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(config!$A$1, "{vlan}", data!B5), "{IP}", data!A5)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(config!$A$1, "{vlan}", data!B6), "{IP}", data!A6)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(config!$A$1, "{vlan}", data!B7), "{IP}", data!A7)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(config!$A$1, "{vlan}", data!B8), "{IP}", data!A8)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(config!$A$1, "{vlan}", data!B9), "{IP}", data!A9)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(config!$A$1, "{vlan}", data!B10), "{IP}", data!A10)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9600</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f>SUBSTITUTE(config!$A$1, "{IP}", data!A11)</f>
+        <v>en
+conf t
+interface vlan {a}
+ip address {b} 255.255.255.0
+exit</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>